--- a/PythonINCMaker.xlsx
+++ b/PythonINCMaker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/juan_cruz_aldaya_accenture_com/Documents/Desktop/Python Scripts/Work Scripts/INCMaker Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="13_ncr:1_{290AAF58-0E5D-4144-B30A-B5F9CDA2BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5F9D08-4D18-4DAC-A6A7-BC43EDD71CE8}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{8EE8C034-2EF3-4474-A178-BAFB53E3D1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347B24C3-66AA-4A64-8BE0-766347E42814}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E090152B-CD87-48D1-9B5A-401C398D3D49}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>CALLER</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Procurement (8)</t>
   </si>
   <si>
-    <t>TSL-LATAM-ARG-MDP</t>
-  </si>
-  <si>
     <t>Error/Failure (1)</t>
   </si>
   <si>
@@ -376,16 +373,9 @@
     <t>Network ITEM</t>
   </si>
   <si>
-    <t>juan.cruz.aldaya</t>
-  </si>
-  <si>
     <t>Performance (12)</t>
   </si>
   <si>
-    <t>The incident was resolved with a favorable outcome. Please let us know how we can improve our service in the future!
-Regards</t>
-  </si>
-  <si>
     <t>Wkn Compliance (14) **</t>
   </si>
   <si>
@@ -395,30 +385,6 @@
     <t>Virus(12)</t>
   </si>
   <si>
-    <t>Cant log teams</t>
-  </si>
-  <si>
-    <t>User have problems with the device in AD</t>
-  </si>
-  <si>
-    <t>Headset malfunctioned</t>
-  </si>
-  <si>
-    <t>Need to reinstall headphones driver</t>
-  </si>
-  <si>
-    <t>Guided user to install printer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User need to print </t>
-  </si>
-  <si>
-    <t>Battery malfunctioned</t>
-  </si>
-  <si>
-    <t>User need to change the battery due malfuntioned</t>
-  </si>
-  <si>
     <t>Hardware (6)</t>
   </si>
   <si>
@@ -428,43 +394,7 @@
     <t>Network (9)</t>
   </si>
   <si>
-    <t>User need to connect phone to wifi IOT</t>
-  </si>
-  <si>
-    <t>User is blocked</t>
-  </si>
-  <si>
-    <t>User need recovery key to enter windows</t>
-  </si>
-  <si>
-    <t>User need tap</t>
-  </si>
-  <si>
-    <t>User cant log ds account</t>
-  </si>
-  <si>
     <t>Pswd/Pin/Btlocker(8)</t>
-  </si>
-  <si>
-    <t>Reset password</t>
-  </si>
-  <si>
-    <t>Motherboard issue</t>
-  </si>
-  <si>
-    <t>PC don't turn on</t>
-  </si>
-  <si>
-    <t>User need password to log PC</t>
-  </si>
-  <si>
-    <t>User need password to log printer</t>
-  </si>
-  <si>
-    <t>User need AC Adapter</t>
-  </si>
-  <si>
-    <t>User need charger to use it in office</t>
   </si>
   <si>
     <r>
@@ -478,48 +408,6 @@
       </rPr>
       <t>Check</t>
     </r>
-  </si>
-  <si>
-    <t>Patching issue</t>
-  </si>
-  <si>
-    <t>Updates dont install with SCCM</t>
-  </si>
-  <si>
-    <t>Tanium issue</t>
-  </si>
-  <si>
-    <t>Registry with wrong value</t>
-  </si>
-  <si>
-    <t>Antivirus issue</t>
-  </si>
-  <si>
-    <t>Antivirus check issue</t>
-  </si>
-  <si>
-    <t>User need headsets</t>
-  </si>
-  <si>
-    <t>Delivered headset to use for the day in the office</t>
-  </si>
-  <si>
-    <t>dario.mujica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitlocker recovery </t>
-  </si>
-  <si>
-    <t>User need BITLOCKER RECOVERY TO LOG</t>
-  </si>
-  <si>
-    <t>juan.marcos.paris</t>
-  </si>
-  <si>
-    <t>victoria.g.anaya</t>
-  </si>
-  <si>
-    <t>User cant log teams in phone</t>
   </si>
 </sst>
 </file>
@@ -2856,7 +2744,7 @@
   <dimension ref="A1:AG226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
@@ -2923,7 +2811,7 @@
         <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>18</v>
@@ -2963,42 +2851,20 @@
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="73.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="7">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7">
-        <v>3</v>
-      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8" t="s">
         <v>22</v>
@@ -3024,42 +2890,20 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="7">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7">
-        <v>10</v>
-      </c>
-      <c r="I3" s="7">
-        <v>3</v>
-      </c>
-      <c r="J3" s="7">
-        <v>13</v>
-      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13" t="s">
@@ -3087,42 +2931,20 @@
       <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="7">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3</v>
-      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -3356,7 +3178,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R10" s="14" t="s">
         <v>96</v>
@@ -3503,7 +3325,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="27" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
@@ -4246,7 +4068,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="27" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Q33" s="28"/>
       <c r="R33" s="28"/>
@@ -4403,7 +4225,7 @@
       <c r="O37" s="7"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="13" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="R37" s="14"/>
       <c r="S37" s="15"/>
@@ -4442,7 +4264,7 @@
       <c r="O38" s="7"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R38" s="16"/>
       <c r="S38" s="17"/>
@@ -4481,7 +4303,7 @@
       <c r="O39" s="7"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R39" s="34"/>
       <c r="S39" s="14"/>
@@ -4502,49 +4324,29 @@
     </row>
     <row r="40" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="7">
-        <v>8</v>
-      </c>
-      <c r="D40" s="7">
-        <v>8</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7">
-        <v>10</v>
-      </c>
-      <c r="I40" s="7">
-        <v>5</v>
-      </c>
-      <c r="J40" s="7">
-        <v>3</v>
-      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L40" s="7"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>67</v>
       </c>
       <c r="S40" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -4584,7 +4386,7 @@
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U41" s="7"/>
       <c r="V41" s="23"/>
@@ -4602,41 +4404,19 @@
     </row>
     <row r="42" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="7">
-        <v>6</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="7">
-        <v>10</v>
-      </c>
-      <c r="I42" s="7">
-        <v>3</v>
-      </c>
-      <c r="J42" s="7">
-        <v>3</v>
-      </c>
-      <c r="K42" s="7">
-        <v>11</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -4661,39 +4441,19 @@
     </row>
     <row r="43" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="7">
-        <v>8</v>
-      </c>
-      <c r="D43" s="7">
-        <v>8</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="7">
-        <v>10</v>
-      </c>
-      <c r="I43" s="7">
-        <v>5</v>
-      </c>
-      <c r="J43" s="7">
-        <v>3</v>
-      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L43" s="7"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -4755,39 +4515,19 @@
     </row>
     <row r="45" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="7">
-        <v>9</v>
-      </c>
-      <c r="D45" s="7">
-        <v>3</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="7">
-        <v>10</v>
-      </c>
-      <c r="I45" s="7">
-        <v>6</v>
-      </c>
-      <c r="J45" s="7">
-        <v>7</v>
-      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -4812,39 +4552,19 @@
     </row>
     <row r="46" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="7">
-        <v>9</v>
-      </c>
-      <c r="D46" s="7">
-        <v>3</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7">
-        <v>10</v>
-      </c>
-      <c r="I46" s="7">
-        <v>6</v>
-      </c>
-      <c r="J46" s="7">
-        <v>7</v>
-      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -4869,39 +4589,19 @@
     </row>
     <row r="47" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="7">
-        <v>6</v>
-      </c>
-      <c r="D47" s="7">
-        <v>8</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7">
-        <v>10</v>
-      </c>
-      <c r="I47" s="7">
-        <v>3</v>
-      </c>
-      <c r="J47" s="7">
-        <v>13</v>
-      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -4926,35 +4626,17 @@
     </row>
     <row r="48" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="7">
-        <v>8</v>
-      </c>
-      <c r="D48" s="7">
-        <v>7</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="7">
-        <v>10</v>
-      </c>
-      <c r="I48" s="7">
-        <v>5</v>
-      </c>
-      <c r="J48" s="7">
-        <v>3</v>
-      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -4981,42 +4663,20 @@
     </row>
     <row r="49" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="7">
-        <v>8</v>
-      </c>
-      <c r="D49" s="7">
-        <v>14</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="7">
-        <v>10</v>
-      </c>
-      <c r="I49" s="7">
-        <v>5</v>
-      </c>
-      <c r="J49" s="7">
-        <v>1</v>
-      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O49" s="36" t="s">
-        <v>84</v>
-      </c>
+      <c r="N49" s="7"/>
+      <c r="O49" s="36"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="36" t="s">
@@ -5040,42 +4700,20 @@
     </row>
     <row r="50" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="7">
-        <v>8</v>
-      </c>
-      <c r="D50" s="7">
-        <v>14</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>142</v>
-      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="7">
-        <v>10</v>
-      </c>
-      <c r="I50" s="7">
-        <v>5</v>
-      </c>
-      <c r="J50" s="7">
-        <v>1</v>
-      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O50" s="36" t="s">
-        <v>84</v>
-      </c>
+      <c r="N50" s="7"/>
+      <c r="O50" s="36"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="36" t="s">
@@ -5099,42 +4737,20 @@
     </row>
     <row r="51" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="7">
-        <v>8</v>
-      </c>
-      <c r="D51" s="7">
-        <v>14</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7">
-        <v>10</v>
-      </c>
-      <c r="I51" s="7">
-        <v>5</v>
-      </c>
-      <c r="J51" s="7">
-        <v>1</v>
-      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O51" s="36" t="s">
-        <v>84</v>
-      </c>
+      <c r="N51" s="7"/>
+      <c r="O51" s="36"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="36" t="s">
@@ -5158,42 +4774,20 @@
     </row>
     <row r="52" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="7">
-        <v>8</v>
-      </c>
-      <c r="D52" s="7">
-        <v>14</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7">
-        <v>10</v>
-      </c>
-      <c r="I52" s="7">
-        <v>5</v>
-      </c>
-      <c r="J52" s="7">
-        <v>1</v>
-      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O52" s="36" t="s">
-        <v>84</v>
-      </c>
+      <c r="N52" s="7"/>
+      <c r="O52" s="36"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="36" t="s">
@@ -5217,39 +4811,19 @@
     </row>
     <row r="53" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="7">
-        <v>6</v>
-      </c>
-      <c r="D53" s="7">
-        <v>8</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="7">
-        <v>10</v>
-      </c>
-      <c r="I53" s="7">
-        <v>3</v>
-      </c>
-      <c r="J53" s="7">
-        <v>13</v>
-      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
@@ -5274,39 +4848,19 @@
     </row>
     <row r="54" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="7">
-        <v>6</v>
-      </c>
-      <c r="D54" s="7">
-        <v>8</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="7">
-        <v>10</v>
-      </c>
-      <c r="I54" s="7">
-        <v>3</v>
-      </c>
-      <c r="J54" s="7">
-        <v>13</v>
-      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L54" s="7"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -5348,7 +4902,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="36" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -5531,7 +5085,7 @@
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="27" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
@@ -5569,7 +5123,7 @@
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="1"/>
@@ -5590,35 +5144,17 @@
     </row>
     <row r="62" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="7">
-        <v>9</v>
-      </c>
-      <c r="D62" s="7">
-        <v>3</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7">
-        <v>10</v>
-      </c>
-      <c r="I62" s="7">
-        <v>6</v>
-      </c>
-      <c r="J62" s="7">
-        <v>7</v>
-      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
@@ -5643,35 +5179,17 @@
     </row>
     <row r="63" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A63" s="7"/>
-      <c r="B63" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="7">
-        <v>8</v>
-      </c>
-      <c r="D63" s="7">
-        <v>7</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="7">
-        <v>10</v>
-      </c>
-      <c r="I63" s="7">
-        <v>5</v>
-      </c>
-      <c r="J63" s="7">
-        <v>3</v>
-      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -5696,35 +5214,17 @@
     </row>
     <row r="64" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A64" s="7"/>
-      <c r="B64" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="7">
-        <v>8</v>
-      </c>
-      <c r="D64" s="7">
-        <v>7</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="7">
-        <v>10</v>
-      </c>
-      <c r="I64" s="7">
-        <v>5</v>
-      </c>
-      <c r="J64" s="7">
-        <v>3</v>
-      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -5747,41 +5247,21 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
     </row>
-    <row r="65" spans="1:33" ht="106.2" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A65" s="7"/>
-      <c r="B65" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="7">
-        <v>9</v>
-      </c>
-      <c r="D65" s="7">
-        <v>3</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="7">
-        <v>10</v>
-      </c>
-      <c r="I65" s="7">
-        <v>6</v>
-      </c>
-      <c r="J65" s="7">
-        <v>7</v>
-      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="37" t="s">
-        <v>110</v>
-      </c>
+      <c r="N65" s="37"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -5802,41 +5282,21 @@
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
     </row>
-    <row r="66" spans="1:33" ht="106.2" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="7">
-        <v>6</v>
-      </c>
-      <c r="D66" s="7">
-        <v>5</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="7">
-        <v>10</v>
-      </c>
-      <c r="I66" s="7">
-        <v>3</v>
-      </c>
-      <c r="J66" s="7">
-        <v>10</v>
-      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="37" t="s">
-        <v>110</v>
-      </c>
+      <c r="N66" s="37"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
@@ -5857,41 +5317,21 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
     </row>
-    <row r="67" spans="1:33" ht="106.2" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A67" s="7"/>
-      <c r="B67" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="7">
-        <v>6</v>
-      </c>
-      <c r="D67" s="7">
-        <v>7</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7">
-        <v>10</v>
-      </c>
-      <c r="I67" s="7">
-        <v>3</v>
-      </c>
-      <c r="J67" s="7">
-        <v>12</v>
-      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L67" s="7"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="37" t="s">
-        <v>110</v>
-      </c>
+      <c r="N67" s="37"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
@@ -5917,22 +5357,12 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="7">
-        <v>10</v>
-      </c>
-      <c r="I68" s="7">
-        <v>5</v>
-      </c>
-      <c r="J68" s="7">
-        <v>2</v>
-      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -5957,37 +5387,21 @@
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
     </row>
-    <row r="69" spans="1:33" ht="106.2" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="7">
-        <v>10</v>
-      </c>
-      <c r="I69" s="7">
-        <v>3</v>
-      </c>
-      <c r="J69" s="7">
-        <v>12</v>
-      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="37" t="s">
-        <v>110</v>
-      </c>
+      <c r="N69" s="37"/>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -6008,37 +5422,21 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
     </row>
-    <row r="70" spans="1:33" ht="106.2" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:33" ht="35.4" x14ac:dyDescent="0.7">
       <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="7">
-        <v>10</v>
-      </c>
-      <c r="I70" s="7">
-        <v>3</v>
-      </c>
-      <c r="J70" s="7">
-        <v>12</v>
-      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="N70" s="37" t="s">
-        <v>110</v>
-      </c>
+      <c r="N70" s="37"/>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>

--- a/PythonINCMaker.xlsx
+++ b/PythonINCMaker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/juan_cruz_aldaya_accenture_com/Documents/Desktop/Python Scripts/Work Scripts/INCMaker Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{8EE8C034-2EF3-4474-A178-BAFB53E3D1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347B24C3-66AA-4A64-8BE0-766347E42814}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="14_{8EE8C034-2EF3-4474-A178-BAFB53E3D1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C861E17-F027-44BF-8B20-4C19F278A5BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E090152B-CD87-48D1-9B5A-401C398D3D49}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>CALLER</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Cerificates (2)</t>
   </si>
   <si>
-    <t>Login Issues (5)</t>
-  </si>
-  <si>
     <t>ASSIGNED TO</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
   </si>
   <si>
     <t>Performance (12)</t>
-  </si>
-  <si>
-    <t>Wkn Compliance (14) **</t>
   </si>
   <si>
     <t>VPN (13)</t>
@@ -408,6 +402,32 @@
       </rPr>
       <t>Check</t>
     </r>
+  </si>
+  <si>
+    <t>miguel.a.paolini</t>
+  </si>
+  <si>
+    <t>juan.cruz.aldaya</t>
+  </si>
+  <si>
+    <t>User cant log resources</t>
+  </si>
+  <si>
+    <t>Use cant log teams</t>
+  </si>
+  <si>
+    <t>The incident was resolved with a favorable outcome.
+Please, let us know how we can improve our service.
+Regards</t>
+  </si>
+  <si>
+    <t>TSL-LATAM-ARG-MDP</t>
+  </si>
+  <si>
+    <t>Wkn Compliance (16) **</t>
+  </si>
+  <si>
+    <t>Login Issues (6)</t>
   </si>
 </sst>
 </file>
@@ -2743,11 +2763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E85CCA-7EBD-4996-82F8-7FF033B67199}">
   <dimension ref="A1:AG226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="45" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" style="6" bestFit="1" customWidth="1"/>
@@ -2778,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2793,49 +2813,49 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="S1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -2851,28 +2871,52 @@
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="73.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="7">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>83</v>
+      </c>
       <c r="P2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
@@ -2910,11 +2954,11 @@
         <v>5</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S3" s="15"/>
       <c r="T3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="1"/>
@@ -2949,11 +2993,11 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="1"/>
@@ -2990,11 +3034,11 @@
         <v>6</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S5" s="15"/>
       <c r="T5" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="1"/>
@@ -3029,7 +3073,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="16"/>
@@ -3066,7 +3110,7 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="16"/>
@@ -3105,7 +3149,7 @@
         <v>7</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="14"/>
@@ -3142,7 +3186,7 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="14"/>
@@ -3178,10 +3222,10 @@
       <c r="O10" s="7"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="14"/>
@@ -3218,7 +3262,7 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="16"/>
@@ -3255,7 +3299,7 @@
       <c r="P12" s="25"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="16"/>
@@ -3325,12 +3369,12 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
       <c r="S14" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T14" s="28"/>
       <c r="U14" s="29"/>
@@ -3370,7 +3414,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="17"/>
       <c r="T15" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="1"/>
@@ -3407,7 +3451,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="17"/>
       <c r="T16" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="1"/>
@@ -3446,10 +3490,10 @@
       <c r="R17" s="14"/>
       <c r="S17" s="15"/>
       <c r="T17" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="23"/>
@@ -3487,10 +3531,10 @@
       <c r="R18" s="16"/>
       <c r="S18" s="17"/>
       <c r="T18" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="23"/>
@@ -3523,15 +3567,15 @@
       <c r="O19" s="7"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R19" s="16"/>
       <c r="S19" s="17"/>
       <c r="T19" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="23"/>
@@ -3569,10 +3613,10 @@
       <c r="R20" s="16"/>
       <c r="S20" s="17"/>
       <c r="T20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="23"/>
@@ -3605,15 +3649,15 @@
       <c r="O21" s="7"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R21" s="16"/>
       <c r="S21" s="17"/>
       <c r="T21" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="23"/>
@@ -3651,10 +3695,10 @@
       <c r="R22" s="16"/>
       <c r="S22" s="17"/>
       <c r="T22" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="23"/>
@@ -3692,10 +3736,10 @@
       <c r="R23" s="14"/>
       <c r="S23" s="15"/>
       <c r="T23" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="23"/>
@@ -3731,10 +3775,10 @@
       <c r="R24" s="14"/>
       <c r="S24" s="15"/>
       <c r="T24" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="23"/>
@@ -3770,10 +3814,10 @@
       <c r="R25" s="14"/>
       <c r="S25" s="15"/>
       <c r="T25" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="23"/>
@@ -3809,10 +3853,10 @@
       <c r="R26" s="16"/>
       <c r="S26" s="17"/>
       <c r="T26" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="23"/>
@@ -3848,10 +3892,10 @@
       <c r="R27" s="16"/>
       <c r="S27" s="17"/>
       <c r="T27" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="23"/>
@@ -3887,10 +3931,10 @@
       <c r="R28" s="14"/>
       <c r="S28" s="15"/>
       <c r="T28" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -3926,7 +3970,7 @@
       <c r="R29" s="16"/>
       <c r="S29" s="17"/>
       <c r="T29" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U29" s="14"/>
       <c r="V29" s="1"/>
@@ -3963,7 +4007,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="15"/>
       <c r="T30" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="1"/>
@@ -4000,7 +4044,7 @@
       <c r="R31" s="16"/>
       <c r="S31" s="17"/>
       <c r="T31" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U31" s="16"/>
       <c r="V31" s="1"/>
@@ -4068,12 +4112,12 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q33" s="28"/>
       <c r="R33" s="28"/>
       <c r="S33" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T33" s="28"/>
       <c r="U33" s="29"/>
@@ -4113,7 +4157,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="17"/>
       <c r="T34" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U34" s="31"/>
       <c r="V34" s="1"/>
@@ -4152,7 +4196,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="15"/>
       <c r="T35" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U35" s="32"/>
       <c r="V35" s="1"/>
@@ -4186,12 +4230,12 @@
       <c r="O36" s="7"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="19" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="R36" s="16"/>
       <c r="S36" s="17"/>
       <c r="T36" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U36" s="31"/>
       <c r="V36" s="23"/>
@@ -4225,12 +4269,12 @@
       <c r="O37" s="7"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R37" s="14"/>
       <c r="S37" s="15"/>
       <c r="T37" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U37" s="32"/>
       <c r="V37" s="23"/>
@@ -4264,12 +4308,12 @@
       <c r="O38" s="7"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R38" s="16"/>
       <c r="S38" s="17"/>
       <c r="T38" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U38" s="31"/>
       <c r="V38" s="23"/>
@@ -4303,7 +4347,7 @@
       <c r="O39" s="7"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R39" s="34"/>
       <c r="S39" s="14"/>
@@ -4340,13 +4384,13 @@
       <c r="O40" s="7"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="R40" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S40" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -4382,11 +4426,11 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U41" s="7"/>
       <c r="V41" s="23"/>
@@ -4421,7 +4465,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -4458,7 +4502,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -4495,7 +4539,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -4532,7 +4576,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4569,7 +4613,7 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4606,7 +4650,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4643,7 +4687,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4680,7 +4724,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4717,7 +4761,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4754,7 +4798,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4791,7 +4835,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4828,7 +4872,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4865,7 +4909,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -4902,7 +4946,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -4939,7 +4983,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4976,7 +5020,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -5013,7 +5057,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -5050,7 +5094,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -5085,7 +5129,7 @@
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
@@ -5123,7 +5167,7 @@
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="1"/>
